--- a/app.xlsx
+++ b/app.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Mec Sol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF753B9-BC29-4B31-9F6C-C6845DB73698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C89CE3-E7B8-4E0C-A6FA-795527CE2B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
+    <workbookView xWindow="-21720" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sobre</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Q (KN)</t>
   </si>
   <si>
-    <t>Início</t>
-  </si>
-  <si>
-    <t>Fim</t>
-  </si>
-  <si>
     <t>Calcular</t>
   </si>
   <si>
@@ -77,16 +71,57 @@
     <t>Sair</t>
   </si>
   <si>
-    <t>Q (KN/m)</t>
+    <t>Distancia entre os pontos de apoio em metros</t>
+  </si>
+  <si>
+    <t>Distancia (m):</t>
+  </si>
+  <si>
+    <t>Carga 1:</t>
+  </si>
+  <si>
+    <t>Carga 2:</t>
+  </si>
+  <si>
+    <t>Carga 3:</t>
+  </si>
+  <si>
+    <t>Carga 4:</t>
+  </si>
+  <si>
+    <t>Carga 5:</t>
+  </si>
+  <si>
+    <t>Q (KN/m):</t>
+  </si>
+  <si>
+    <t>Início:</t>
+  </si>
+  <si>
+    <t>Fim:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,13 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -207,13 +241,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD08E-DE45-41EC-AF92-D7180A1EA36F}">
-  <dimension ref="D2:I24"/>
+  <dimension ref="D2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,223 +592,182 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="I12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D12:I12"/>
+  <mergeCells count="6">
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C89CE3-E7B8-4E0C-A6FA-795527CE2B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D2B27-EE13-4929-B2F2-ECDD2F601B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sobre</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Fim:</t>
+  </si>
+  <si>
+    <t>Coluna y removida</t>
   </si>
 </sst>
 </file>
@@ -128,13 +131,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -228,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -238,6 +247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,15 +265,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD08E-DE45-41EC-AF92-D7180A1EA36F}">
-  <dimension ref="D2:I26"/>
+  <dimension ref="D2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,29 +601,32 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
       <c r="E5" t="s">
         <v>6</v>
@@ -621,66 +634,71 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="16"/>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="G7" s="16"/>
       <c r="H7" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G8" s="16"/>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="16"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="G10" s="16"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="12" t="s">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="15" t="s">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" t="s">
         <v>7</v>
       </c>
@@ -688,31 +706,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="9" t="s">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="I16" s="5"/>
     </row>

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D2B27-EE13-4929-B2F2-ECDD2F601B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09AA986-7460-4B01-8262-83A2C2FE84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
+    <workbookView xWindow="-23820" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Sobre</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Coluna y removida</t>
+  </si>
+  <si>
+    <t>Cargas Pontuais</t>
+  </si>
+  <si>
+    <t>Cargas Distribuidas</t>
   </si>
 </sst>
 </file>
@@ -237,38 +243,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,13 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD08E-DE45-41EC-AF92-D7180A1EA36F}">
-  <dimension ref="D2:M26"/>
+  <dimension ref="C2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
@@ -602,29 +647,29 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="19"/>
       <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
@@ -634,7 +679,7 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="5"/>
@@ -643,7 +688,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="8"/>
       <c r="H6" t="s">
         <v>18</v>
       </c>
@@ -653,7 +698,7 @@
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="8"/>
       <c r="H7" t="s">
         <v>19</v>
       </c>
@@ -663,7 +708,7 @@
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="8"/>
       <c r="H8" t="s">
         <v>20</v>
       </c>
@@ -673,14 +718,14 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="8"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="8"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
@@ -693,7 +738,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="9"/>
@@ -707,85 +752,275 @@
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
+      <c r="E20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="D28:I28"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="J17:K26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09AA986-7460-4B01-8262-83A2C2FE84A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516154C6-EB61-4E22-AA87-E2327EB53C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23820" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Sobre</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Cargas Distribuidas</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
@@ -258,46 +261,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,7 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,14 +629,14 @@
   <dimension ref="C2:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
@@ -647,29 +650,29 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="19"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
       <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
@@ -729,12 +732,12 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
@@ -752,32 +755,32 @@
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="19"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16">
@@ -804,8 +807,11 @@
       <c r="K16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>0</v>
       </c>
@@ -817,198 +823,213 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="22" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="24"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="22" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="24"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="22" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="24"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="22" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="24"/>
+      <c r="L27" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="6"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J17:L26"/>
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D3:I3"/>
@@ -1020,7 +1041,6 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="J17:K26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516154C6-EB61-4E22-AA87-E2327EB53C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B32CB-C5F3-4CC1-B046-EE7878684A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -265,6 +265,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,29 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +619,7 @@
   <dimension ref="C2:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,29 +640,29 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
       <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
@@ -732,12 +722,12 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
@@ -755,24 +745,24 @@
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
@@ -823,65 +813,63 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="22"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="24" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="22"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -890,16 +878,13 @@
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="22"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
@@ -908,16 +893,13 @@
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="22"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -926,16 +908,13 @@
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="22"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
@@ -944,14 +923,10 @@
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="22"/>
+      <c r="G24" s="8"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
@@ -960,30 +935,24 @@
       <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="22"/>
+      <c r="G25" s="8"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -992,38 +961,38 @@
       <c r="D27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="24" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="24"/>
+      <c r="K27" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="L27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>11</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="6"/>
     </row>

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B32CB-C5F3-4CC1-B046-EE7878684A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDD716-5689-4933-8B85-CE6C56C56402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Sobre</t>
   </si>
@@ -111,13 +111,64 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>versão 2</t>
+  </si>
+  <si>
+    <t>versão 1</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>versão 3</t>
+  </si>
+  <si>
+    <t>Xinicial</t>
+  </si>
+  <si>
+    <t>Xfinal</t>
+  </si>
+  <si>
+    <t>Carga:</t>
+  </si>
+  <si>
+    <t>Botao Adicionar</t>
+  </si>
+  <si>
+    <t>Fxi (N)</t>
+  </si>
+  <si>
+    <t>Fyi (N)</t>
+  </si>
+  <si>
+    <t>DropDown</t>
+  </si>
+  <si>
+    <t>Carga número:</t>
+  </si>
+  <si>
+    <t>Botao Remover</t>
+  </si>
+  <si>
+    <t>Listar Cargas</t>
+  </si>
+  <si>
+    <t>Apoio direito (m):</t>
+  </si>
+  <si>
+    <t>Apoio esquerdo (m):</t>
+  </si>
+  <si>
+    <t>Coordenada X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +190,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +211,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -242,11 +306,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -301,7 +531,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,286 +877,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD08E-DE45-41EC-AF92-D7180A1EA36F}">
-  <dimension ref="C2:M28"/>
+  <dimension ref="C1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="4"/>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" t="s">
-        <v>18</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="8"/>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="8"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="19" t="s">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D16">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="20"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" t="s">
-        <v>19</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -903,14 +1162,14 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -918,98 +1177,395 @@
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" s="8"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" s="8"/>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="6"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="28"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="39"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J17:L26"/>
-    <mergeCell ref="D28:I28"/>
+  <mergeCells count="16">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="J35:L44"/>
+    <mergeCell ref="J19:L28"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDD716-5689-4933-8B85-CE6C56C56402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA147BE-0B25-4DA1-A44C-878A82DEEA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
+    <workbookView xWindow="-26835" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Sobre</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Botao Remover</t>
   </si>
   <si>
-    <t>Listar Cargas</t>
-  </si>
-  <si>
     <t>Apoio direito (m):</t>
   </si>
   <si>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>Coordenada X</t>
+  </si>
+  <si>
+    <t>Novos Valores</t>
+  </si>
+  <si>
+    <t>Reação</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -495,16 +498,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,38 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD08E-DE45-41EC-AF92-D7180A1EA36F}">
   <dimension ref="C1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,14 +888,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
@@ -916,29 +908,29 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -998,12 +990,12 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
@@ -1021,24 +1013,24 @@
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
@@ -1049,17 +1041,17 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D18">
@@ -1102,45 +1094,45 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
@@ -1156,9 +1148,9 @@
       <c r="G22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -1171,9 +1163,9 @@
       <c r="H23" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
@@ -1186,9 +1178,9 @@
       <c r="H24" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
@@ -1201,9 +1193,9 @@
       <c r="H25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
@@ -1213,9 +1205,9 @@
         <v>16</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -1225,23 +1217,23 @@
         <v>17</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>9</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
@@ -1273,30 +1265,30 @@
       <c r="C30">
         <v>11</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="6"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D33">
@@ -1347,175 +1339,147 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="28" t="s">
+      <c r="G35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="15"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="15"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="41" t="s">
+      <c r="I38" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="15"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="46" t="s">
+      <c r="G39" s="25"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="15"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49" t="s">
+      <c r="D40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="15"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="41" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="15"/>
+      <c r="G41" s="9"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="32"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="15"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="32"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="15"/>
+      <c r="D43" s="4"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="32"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="15"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="32"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
@@ -1531,22 +1495,26 @@
         <v>23</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>11</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="K46" s="11"/>
-      <c r="L46" s="6"/>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/app.xlsx
+++ b/app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 - Ulisses\Cursos\Python\Momentos_Mec_Sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA147BE-0B25-4DA1-A44C-878A82DEEA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35482157-3F23-42DB-A000-5437ED6A46EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
+    <workbookView xWindow="-135" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{B81118AB-4249-4E54-B3FF-127817C07719}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Sobre</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Reação</t>
+  </si>
+  <si>
+    <t>versão 4</t>
+  </si>
+  <si>
+    <t>Diagrama Cortante</t>
   </si>
 </sst>
 </file>
@@ -221,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -475,11 +481,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -553,6 +605,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD08E-DE45-41EC-AF92-D7180A1EA36F}">
-  <dimension ref="C1:M46"/>
+  <dimension ref="C1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53:M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +946,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1516,8 +1579,301 @@
         <v>10</v>
       </c>
     </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D50" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="32"/>
+    </row>
+    <row r="56" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="3:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="3:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="32"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="J53:M62"/>
+    <mergeCell ref="D50:M50"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D17:L17"/>
     <mergeCell ref="D32:L32"/>
